--- a/Test Senario and cases.xlsx
+++ b/Test Senario and cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA623779-B879-4D48-B8AC-2FB9F8284D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED797F3-C9F4-49BA-88FB-D31AD7D15B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1812" windowWidth="10596" windowHeight="8880" xr2:uid="{5985EA36-AC64-4D42-B38B-E8C8F144F5E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5985EA36-AC64-4D42-B38B-E8C8F144F5E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,14 +200,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,14 +524,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA869C8-DFB6-4E0E-9711-B90720CC6DED}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -550,133 +550,133 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -738,16 +738,35 @@
     <row r="46" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A42:XFD42"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A45:XFD45"/>
-    <mergeCell ref="A46:XFD46"/>
-    <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A28:XFD28"/>
     <mergeCell ref="A41:XFD41"/>
     <mergeCell ref="A30:XFD30"/>
     <mergeCell ref="A31:XFD31"/>
@@ -755,35 +774,16 @@
     <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="A34:XFD34"/>
     <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="A6:XFD6"/>
-    <mergeCell ref="A7:XFD7"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A11:XFD11"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A36:XFD36"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A42:XFD42"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A45:XFD45"/>
+    <mergeCell ref="A46:XFD46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
